--- a/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
+++ b/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/Google ドライブ/eternal/20.開発/50.画面/10.画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/50.画面/10.画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="画面一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="画面遷移図" sheetId="1" r:id="rId2"/>
+    <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">画面一覧!$B$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">画面一覧!$B$3:$I$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="4">
@@ -104,16 +105,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t># hiimaの投稿を表示する</t>
-    <rPh sb="8" eb="10">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面のトップに次々にトークテーマが表示される。選択をするとトークテーマの詳細が表示される</t>
     <rPh sb="0" eb="2">
       <t>ガメンノ</t>
@@ -140,20 +131,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログイン・新規登録ボタンを表示する</t>
-    <rPh sb="5" eb="9">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>広告</t>
     <rPh sb="0" eb="2">
       <t>コウコク</t>
@@ -171,29 +148,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>トークテーマを投稿する</t>
-    <rPh sb="7" eb="9">
-      <t>トウコウスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ホーム・ランキング表示・ランダム表示・トークテーマ投稿・検索のボタンを表示する</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ヘッダー</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -280,10 +234,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TODO</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ランダム表示画面</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -337,13 +287,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ランダム表示を実行する</t>
-    <rPh sb="7" eb="9">
-      <t>ジッコウスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ヘッダー</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -418,36 +361,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像・リンクを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>フィードバック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>星での評価を表示する。フィードバックコメントの記入欄を表示する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホシヒョウジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>キニュウラン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジスル</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -480,15 +394,553 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フィードバック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ランダム</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ランキング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Twitterの投稿蘭のイメージ</t>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンポーネント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-01-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-02-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-03-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-04-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-05-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトの説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトの説明を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インフォグラフィックみたいなモダンなデザインのページにしたい。
+ボリュームは3ページぐらい</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># hiimaのtwitterでの投稿を表示する
+</t>
+    <rPh sb="17" eb="19">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>twitterのAPIで取得した内容を表示する</t>
+    <rPh sb="12" eb="14">
+      <t>シュトクシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマを投稿する
+投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</t>
+    <rPh sb="7" eb="9">
+      <t>トウコウスル</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アフィリエイト用の広告</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コピーライトとかを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランダム表示を実行する
+「Let's talk」</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿者・関連画像・WikiのリンクやYouTubeのリンクが表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カンレンガゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レコメンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フィードバックを行うと人気のトークテーマをレコメンドする</t>
+    <rPh sb="8" eb="9">
+      <t>オコナウト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンキノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LIKE/BADで評価する。フィードバックコメントの記入欄を表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>キニュウラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマタイトル入力</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ詳細入力</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマのタイトルを入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマの詳細を入力する</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ関連情報入力</t>
+    <rPh sb="6" eb="10">
+      <t>カンレンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマの関連情報を入力する</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更者</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="2">
+      <t>syohann</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショバンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>siba</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ詳細</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索バー</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索条件を入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マッピング(URL)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/ranking?rankingId={ランキングID}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/random</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/talk?talkId={talkId}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/post</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-07-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-06-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-08-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインフォーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント作成画面リンク</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーID、パスワードの入力欄とログインボタンを表示する</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント作成画面へのリンクを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-09-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント作成画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメｎ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/signup</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント情報入力欄</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>twitterなどのアカウントとの連携でアカウントを作成できるようにする</t>
+    <rPh sb="17" eb="19">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力・確認・完了みたいにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>kannryou</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面一覧
+・URL(マッピング)列を追加
+・マイページ、アカウント作成画面を追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメｎ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -496,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,6 +1020,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -583,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -705,34 +1164,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -763,11 +1228,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -971,15 +1483,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -989,7 +1501,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7721600" y="1270000"/>
+          <a:off x="5067300" y="4318000"/>
           <a:ext cx="965200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1376,560 +1888,1044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="20">
+        <v>43367</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="20">
+        <v>43373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="9"/>
-    <col min="2" max="2" width="4.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="2.7109375" style="9"/>
+    <col min="1" max="1" width="1.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="2.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="2:6" ht="23" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:9" ht="8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="4" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <f>ROW()-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B44" si="0">ROW()-ROW($B$3)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="38" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
-        <f t="shared" ref="B6:B29" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12" t="s">
+      <c r="C21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" ht="38" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" ht="38" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="12" t="s">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="12" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>G34</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" ht="38" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="12" t="s">
+      <c r="C41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>G8</f>
+        <v>トークテーマを投稿する_x000D_投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="12" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="12" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F3"/>
+  <autoFilter ref="B3:I3"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AQ18"/>
+  <dimension ref="B2:AF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="O5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
-      <c r="Z5" s="3" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="O5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+      <c r="Z5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="27"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="27"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="O9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="O13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+    </row>
+    <row r="17" spans="15:32" x14ac:dyDescent="0.35">
+      <c r="O17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="5"/>
-      <c r="AK5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="5"/>
-    </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="8"/>
-    </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="O9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="O13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="17" spans="15:21" x14ac:dyDescent="0.35">
-      <c r="O17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.35">
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="8"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="24"/>
+      <c r="Z17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="18" spans="15:32" x14ac:dyDescent="0.35">
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AK5:AQ6"/>
+    <mergeCell ref="O17:U18"/>
+    <mergeCell ref="Z17:AF18"/>
     <mergeCell ref="D5:J6"/>
     <mergeCell ref="O5:U6"/>
     <mergeCell ref="O9:U10"/>
     <mergeCell ref="O13:U14"/>
     <mergeCell ref="Z5:AF6"/>
-    <mergeCell ref="O17:U18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
+++ b/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="4">
@@ -226,14 +226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ランダム表示画面</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -291,10 +283,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マイページ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -323,10 +311,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>自分の投稿内容を管理する</t>
     <rPh sb="0" eb="2">
       <t>ジブンノ</t>
@@ -376,10 +360,6 @@
     <rPh sb="7" eb="9">
       <t>キョウユウスル</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フッター</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -541,13 +521,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コピーライトとかを表示する</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ランダム表示を実行する
 「Let's talk」</t>
     <rPh sb="7" eb="9">
@@ -556,10 +529,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>投稿者・関連画像・WikiのリンクやYouTubeのリンクが表示される</t>
     <rPh sb="0" eb="3">
       <t>トウコウシャ</t>
@@ -721,10 +690,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>フッター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索結果</t>
     <rPh sb="0" eb="4">
       <t>ケンサクケッカ</t>
@@ -766,23 +731,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>/ranking?rankingId={ランキングID}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>/random</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>/talk?talkId={talkId}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>/post</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>/mypage</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -890,10 +843,6 @@
     <rPh sb="9" eb="10">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フッター</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -941,6 +890,46 @@
     <rPh sb="38" eb="40">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面一覧
+・フッターの削除</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマのフローティングアクションボタンを押下するとトークテーマ投稿のモーダルウィンドウを表示する</t>
+    <rPh sb="23" eb="25">
+      <t>オウカスル</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウコウノ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/talk/{talkId}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/mypage/{userId}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/ranking/{rankingID}</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1042,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1175,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1194,7 +1196,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1249,6 +1251,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,11 +1272,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1888,7 +1905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1903,32 +1920,32 @@
     <row r="1" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20">
         <v>43367</v>
@@ -1936,16 +1953,30 @@
     </row>
     <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E5" s="20">
         <v>43373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="40" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="20">
+        <v>43380</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I44"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1997,13 +2028,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
@@ -2012,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
@@ -2024,19 +2055,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
@@ -2045,7 +2076,7 @@
     </row>
     <row r="5" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B44" si="0">ROW()-ROW($B$3)</f>
+        <f t="shared" ref="B5:B35" si="0">ROW()-ROW($B$3)</f>
         <v>2</v>
       </c>
       <c r="C5" s="9"/>
@@ -2072,11 +2103,11 @@
         <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.3">
@@ -2088,14 +2119,14 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="57" x14ac:dyDescent="0.3">
@@ -2110,11 +2141,11 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -2129,53 +2160,53 @@
         <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f>G4</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2184,15 +2215,15 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2201,41 +2232,49 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="57" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -2244,25 +2283,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2271,11 +2304,9 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
@@ -2284,45 +2315,56 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="9"/>
       <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
@@ -2331,60 +2373,61 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f>G4</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="I23" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2393,13 +2436,13 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
@@ -2410,67 +2453,75 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="F26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="7" t="str">
+      <c r="G28" s="7" t="str">
         <f>G4</f>
         <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
@@ -2479,14 +2530,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="6" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -2496,29 +2547,39 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f>G28</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
@@ -2527,61 +2588,57 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="G32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" ht="57" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="C33" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>107</v>
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f>G8</f>
+        <v>トークテーマを投稿する_x000D_投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="7" t="str">
-        <f>G4</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+        <v>81</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2591,183 +2648,23 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="7" t="str">
-        <f>G34</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" ht="38" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" ht="57" x14ac:dyDescent="0.3">
-      <c r="B41" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="7" t="str">
-        <f>G8</f>
-        <v>トークテーマを投稿する_x000D_投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="6">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="6">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
   </sheetData>
   <autoFilter ref="B3:I3"/>
+  <mergeCells count="1">
+    <mergeCell ref="I23:I25"/>
+  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2777,7 +2674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2790,132 +2689,132 @@
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="O5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="24"/>
-      <c r="Z5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="O5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="25"/>
+      <c r="Z5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="27"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="O9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="24"/>
+      <c r="O13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="17" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="24"/>
-      <c r="Z17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="24"/>
+      <c r="O17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+      <c r="Z17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="25"/>
     </row>
     <row r="18" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
+++ b/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="4">
@@ -73,10 +73,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ホーム画面</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>提供機能</t>
     <rPh sb="0" eb="4">
       <t>テイキョウキノウ</t>
@@ -91,13 +87,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ツイッターでの投稿</t>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -105,28 +94,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面のトップに次々にトークテーマが表示される。選択をするとトークテーマの詳細が表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ガメンノ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツギツギニ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジサレル</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタクヲ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウサイガ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ヘッダー</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -400,10 +367,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HI-01-01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HI-02-01</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -452,30 +415,6 @@
   <si>
     <t>インフォグラフィックみたいなモダンなデザインのページにしたい。
 ボリュームは3ページぐらい</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"># hiimaのtwitterでの投稿を表示する
-</t>
-    <rPh sb="17" eb="19">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>twitterのAPIで取得した内容を表示する</t>
-    <rPh sb="12" eb="14">
-      <t>シュトクシタ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジスル</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -521,14 +460,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ランダム表示を実行する
-「Let's talk」</t>
-    <rPh sb="7" eb="9">
-      <t>ジッコウスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>投稿者・関連画像・WikiのリンクやYouTubeのリンクが表示される</t>
     <rPh sb="0" eb="3">
       <t>トウコウシャ</t>
@@ -818,10 +749,6 @@
     <rPh sb="7" eb="9">
       <t>ガメｎ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>/home</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -930,6 +857,138 @@
   </si>
   <si>
     <t>/ranking/{rankingID}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-01-01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面のトップに次々にトークテーマが表示される。選択をするとトークテーマ詳細へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメンノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギツギニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジサレル</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタクヲ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウサイガ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/top</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ランダム表示を実行する
+「Let's talk」ボタンを押下するとトーク内容がモーダルウィンドウで表示される
+</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウスル</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカスル</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジサレル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HI-03-02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トーク内容モーダル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ詳細リンク</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマの概要を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>押下するとトークテーマ詳細画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカスル</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面一覧
+・Twitter情報の取得を削除
+・ホーム画面をトップ画面に名称変更
+・トーク内容モーダルを追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトクヲ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>メイショウヘンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1031,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1188,6 +1247,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1196,7 +1279,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1254,6 +1337,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,23 +1373,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1905,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1920,32 +2012,32 @@
     <row r="1" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20">
         <v>43367</v>
@@ -1953,13 +2045,13 @@
     </row>
     <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" s="20">
         <v>43373</v>
@@ -1967,16 +2059,30 @@
     </row>
     <row r="6" spans="2:5" ht="40" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E6" s="20">
         <v>43380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="80" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="20">
+        <v>43381</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +2097,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I35"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,22 +2134,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
@@ -2055,43 +2161,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B35" si="0">ROW()-ROW($B$3)</f>
+        <f t="shared" ref="B5:B36" si="0">ROW()-ROW($B$3)</f>
         <v>2</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="57" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2100,14 +2206,14 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.3">
@@ -2119,17 +2225,17 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2138,58 +2244,56 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>G4</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f>G4</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2198,15 +2302,15 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2215,83 +2319,81 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="57" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="76" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
+      <c r="D15" s="14"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -2300,53 +2402,61 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7" t="str">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="str">
         <f>G4</f>
         <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" ht="38" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2360,10 +2470,10 @@
       <c r="D20" s="14"/>
       <c r="E20" s="9"/>
       <c r="F20" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2377,27 +2487,27 @@
       <c r="D21" s="14"/>
       <c r="E21" s="9"/>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -2407,42 +2517,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="6" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="26" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
@@ -2453,92 +2563,92 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="6" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F27" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="7" t="str">
+        <v>87</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="str">
         <f>G4</f>
         <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
@@ -2547,38 +2657,31 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="7" t="str">
-        <f>G28</f>
-        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
+        <v>27</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -2588,57 +2691,64 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="F32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f>G29</f>
+        <v>ホーム・ランキング表示・ランダム表示・検索バー・マイページのボタンを表示する</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" ht="38" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="7" t="str">
-        <f>G8</f>
+        <v>94</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f>G7</f>
         <v>トークテーマを投稿する_x000D_投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2648,22 +2758,39 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:I3"/>
   <mergeCells count="1">
-    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I24:I26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,9 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2689,132 +2814,132 @@
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="O5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25"/>
-      <c r="Z5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="25"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="O5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31"/>
+      <c r="Z5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="31"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="28"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="34"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
+      <c r="O9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="25"/>
+      <c r="O13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
     </row>
     <row r="17" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25"/>
-      <c r="Z17" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="25"/>
+      <c r="O17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="31"/>
+      <c r="Z17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="31"/>
     </row>
     <row r="18" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="28"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
+++ b/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/50.画面/10.画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\50.画面\10.画面一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB76153-AA9A-4E2E-8DF0-181E3514B874}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">画面一覧!$B$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="4">
@@ -637,13 +638,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジスル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検索バー</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -991,12 +985,30 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>検索条件エリア</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ投稿
+(モーダル)</t>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1076,7 +1088,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,6 +1098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1297,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1326,7 +1344,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1346,6 +1363,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1373,15 +1399,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1395,6 +1416,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1417,7 +1441,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1464,7 +1494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1511,7 +1547,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1558,7 +1600,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1605,7 +1653,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1652,7 +1706,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1699,7 +1759,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1996,92 +2062,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="8.1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="22.5">
       <c r="B2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>43367</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="2:5" ht="58.5">
+      <c r="B5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="39">
+      <c r="B6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="C6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="20">
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="40" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="78">
+      <c r="B7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="20">
-        <v>43380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="80" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>43381</v>
       </c>
     </row>
@@ -2096,31 +2162,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="3" customWidth="1"/>
     <col min="7" max="7" width="37" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="2.7109375" style="3"/>
+    <col min="8" max="8" width="30.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="8.1" customHeight="1">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="22.5">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2195,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2140,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
@@ -2155,19 +2221,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="56.25">
       <c r="B4" s="6">
         <f>ROW()-ROW($B$3)</f>
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -2180,7 +2246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="37.5">
       <c r="B5" s="6">
         <f t="shared" ref="B5:B36" si="0">ROW()-ROW($B$3)</f>
         <v>2</v>
@@ -2192,12 +2258,12 @@
         <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="56.25">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2216,7 +2282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="75">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2235,7 +2301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2252,7 +2318,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="37.5">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2264,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -2276,7 +2342,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2293,7 +2359,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="37.5">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2310,7 +2376,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2325,7 +2391,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="37.5">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2336,10 +2402,10 @@
       <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2348,15 +2414,15 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="56.25">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2365,79 +2431,79 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9" ht="76" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="75">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>111</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="35" t="s">
-        <v>112</v>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="37.5">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2449,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>31</v>
@@ -2461,7 +2527,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="37.5">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2478,7 +2544,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="37.5">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2495,7 +2561,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="37.5">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2512,13 +2578,13 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6" t="s">
         <v>33</v>
@@ -2529,7 +2595,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2541,7 +2607,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>56</v>
@@ -2550,11 +2616,11 @@
         <v>58</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2569,9 +2635,9 @@
         <v>59</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2586,32 +2652,32 @@
         <v>61</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" ht="37.5">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2620,27 +2686,27 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="37.5">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>25</v>
@@ -2652,7 +2718,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2669,7 +2735,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2686,22 +2752,22 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="37.5">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>G29</f>
@@ -2710,7 +2776,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" ht="38" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="37.5">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2719,41 +2785,42 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="57" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="75">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>90</v>
+      <c r="C34" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>G7</f>
-        <v>トークテーマを投稿する_x000D_投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
+        <v>トークテーマを投稿する
+投稿フォームと投稿ボタンを表示し、投稿ボタンを押下するとトークテーマ投稿詳細ボタンに遷移する</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2762,33 +2829,33 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:I3"/>
+  <autoFilter ref="B3:I3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="I24:I26"/>
   </mergeCells>
@@ -2798,148 +2865,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AF18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="2.7109375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="16384" width="2.7109375" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D5" s="29" t="s">
+    <row r="5" spans="2:32">
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="O5" s="29" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="O5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="31"/>
-      <c r="Z5" s="29" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33"/>
+      <c r="Z5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="31"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O9" s="29" t="s">
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="33"/>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="36"/>
+    </row>
+    <row r="9" spans="2:32">
+      <c r="O9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O13" s="29" t="s">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="33"/>
+    </row>
+    <row r="10" spans="2:32">
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="O13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="17" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="31"/>
-      <c r="Z17" s="29" t="s">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+    </row>
+    <row r="17" spans="15:32">
+      <c r="O17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="Z17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="31"/>
-    </row>
-    <row r="18" spans="15:32" x14ac:dyDescent="0.35">
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="34"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="33"/>
+    </row>
+    <row r="18" spans="15:32">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
+++ b/20.開発/50.画面/10.画面一覧/画面一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\50.画面\10.画面一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB76153-AA9A-4E2E-8DF0-181E3514B874}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044700C-51A4-49CA-BB94-DDD840DCE360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">画面一覧!$B$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
   <si>
     <t>画面一覧</t>
     <rPh sb="0" eb="4">
@@ -347,16 +352,6 @@
   </si>
   <si>
     <t>ランキング</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Twitterの投稿蘭のイメージ</t>
-    <rPh sb="8" eb="10">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ラン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -999,6 +994,13 @@
     <t>トークテーマ投稿
 (モーダル)</t>
     <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Twitterの投稿欄のイメージ</t>
+    <rPh sb="8" eb="10">
       <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1372,6 +1374,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1382,7 +1385,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,9 +1403,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2078,32 +2080,32 @@
     <row r="1" spans="2:5" ht="8.1" customHeight="1"/>
     <row r="2" spans="2:5" ht="22.5">
       <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="19">
         <v>43367</v>
@@ -2111,13 +2113,13 @@
     </row>
     <row r="5" spans="2:5" ht="58.5">
       <c r="B5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="19">
         <v>43373</v>
@@ -2125,13 +2127,13 @@
     </row>
     <row r="6" spans="2:5" ht="39">
       <c r="B6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="19">
         <v>43380</v>
@@ -2139,13 +2141,13 @@
     </row>
     <row r="7" spans="2:5" ht="78">
       <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="19">
         <v>43381</v>
@@ -2200,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
@@ -2215,7 +2217,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
@@ -2227,19 +2229,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
@@ -2258,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2272,14 +2274,14 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="75">
@@ -2294,11 +2296,11 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2313,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2324,13 +2326,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -2397,19 +2399,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2443,7 +2445,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2469,19 +2471,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2495,10 +2497,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="27"/>
       <c r="F18" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2509,13 +2511,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>31</v>
@@ -2539,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2556,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2570,10 +2572,10 @@
       <c r="D22" s="14"/>
       <c r="E22" s="9"/>
       <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -2601,23 +2603,23 @@
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="28" t="s">
-        <v>99</v>
+      <c r="I24" s="29" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -2629,13 +2631,13 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="6">
@@ -2646,13 +2648,13 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="2:9" ht="37.5">
       <c r="B27" s="6">
@@ -2660,19 +2662,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -2686,10 +2688,10 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2700,13 +2702,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>25</v>
@@ -2758,16 +2760,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>G29</f>
@@ -2785,14 +2787,14 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="75">
@@ -2801,13 +2803,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>23</v>
@@ -2829,10 +2831,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2846,10 +2848,10 @@
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2881,132 +2883,132 @@
       </c>
     </row>
     <row r="5" spans="2:32">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="O5" s="31" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="O5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="33"/>
-      <c r="Z5" s="31" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="Z5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="2:32">
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="37"/>
     </row>
     <row r="9" spans="2:32">
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
     </row>
     <row r="13" spans="2:32">
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
     </row>
     <row r="14" spans="2:32">
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
     </row>
     <row r="17" spans="15:32">
-      <c r="O17" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="Z17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="33"/>
+      <c r="O17" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+      <c r="Z17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="34"/>
     </row>
     <row r="18" spans="15:32">
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
